--- a/AAII_Financials/Quarterly/BWL.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWL.A_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BWL.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,139 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F8" s="3">
         <v>5100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,93 +805,105 @@
         <v>2000</v>
       </c>
       <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2000</v>
       </c>
       <c r="Q9" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -943,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1046,13 +1091,13 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1070,22 +1115,28 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>300</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
       </c>
       <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,40 +1278,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1260,55 +1327,67 @@
       <c r="Q20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1327,11 +1406,11 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1351,105 +1430,123 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>400</v>
       </c>
       <c r="I26" s="3">
         <v>600</v>
       </c>
       <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>600</v>
+      </c>
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>400</v>
       </c>
       <c r="I27" s="3">
         <v>600</v>
       </c>
       <c r="J27" s="3">
+        <v>400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>600</v>
+      </c>
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1656,20 +1777,20 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>600</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1683,8 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,40 +1910,46 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -1824,55 +1963,67 @@
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>400</v>
       </c>
       <c r="I33" s="3">
         <v>600</v>
       </c>
       <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>600</v>
+      </c>
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>400</v>
       </c>
       <c r="I35" s="3">
         <v>600</v>
       </c>
       <c r="J35" s="3">
+        <v>400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>600</v>
+      </c>
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,149 +2226,169 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F42" s="3">
         <v>6600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>7500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>7500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>7100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1500</v>
-      </c>
-      <c r="O42" s="3">
-        <v>500</v>
-      </c>
-      <c r="P42" s="3">
-        <v>500</v>
       </c>
       <c r="Q42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>500</v>
+      </c>
+      <c r="S42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2208,137 +2399,155 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>600</v>
       </c>
       <c r="I44" s="3">
+        <v>600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>600</v>
       </c>
       <c r="Q44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>600</v>
+      </c>
+      <c r="S44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2357,82 +2566,94 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>4800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>8500</v>
-      </c>
-      <c r="O47" s="3">
-        <v>8700</v>
       </c>
       <c r="P47" s="3">
         <v>8500</v>
       </c>
       <c r="Q47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="R47" s="3">
+        <v>8500</v>
+      </c>
+      <c r="S47" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E48" s="3">
         <v>20000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G48" s="3">
         <v>18100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>18400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>18700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>19100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>19300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2478,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,16 +2805,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
@@ -2619,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>800</v>
+      </c>
+      <c r="S52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F54" s="3">
         <v>29800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>28400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>30500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>28600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>28900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>29600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>32200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>31500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>30900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,8 +3010,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2760,46 +3021,52 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2833,114 +3100,132 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,22 +3271,28 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G62" s="3">
         <v>1400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1300</v>
       </c>
       <c r="H62" s="3">
         <v>1400</v>
@@ -3013,19 +3304,19 @@
         <v>1400</v>
       </c>
       <c r="K62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2400</v>
       </c>
       <c r="P62" s="3">
         <v>2300</v>
@@ -3033,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S62" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,8 +3483,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3183,46 +3498,52 @@
         <v>6500</v>
       </c>
       <c r="E66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E72" s="3">
         <v>14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G72" s="3">
         <v>15500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>16200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>15300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>15700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>14000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>14300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>13100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>13700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>14300</v>
       </c>
       <c r="O72" s="3">
         <v>13700</v>
       </c>
       <c r="P72" s="3">
+        <v>14300</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="R72" s="3">
         <v>13900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E76" s="3">
         <v>23300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G76" s="3">
         <v>23900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>24600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>23700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>24000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>24500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>24900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>24600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>24000</v>
       </c>
       <c r="M76" s="3">
         <v>24600</v>
       </c>
       <c r="N76" s="3">
+        <v>24000</v>
+      </c>
+      <c r="O76" s="3">
+        <v>24600</v>
+      </c>
+      <c r="P76" s="3">
         <v>25400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>25000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>25100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>400</v>
       </c>
       <c r="I81" s="3">
         <v>600</v>
       </c>
       <c r="J81" s="3">
+        <v>400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>600</v>
+      </c>
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3837,13 +4234,13 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3861,22 +4258,28 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,43 +4615,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -4223,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,8 +5056,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4607,19 +5098,25 @@
         <v>-900</v>
       </c>
       <c r="N100" s="3">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
       <c r="O100" s="3">
         <v>-900</v>
       </c>
       <c r="P100" s="3">
-        <v>-400</v>
+        <v>-1400</v>
       </c>
       <c r="Q100" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWL.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWL.A_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,271 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="3">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3">
         <v>2000</v>
       </c>
       <c r="G9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2000</v>
       </c>
       <c r="S9" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +949,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1004,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1063,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1122,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1097,13 +1143,13 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1121,22 +1167,28 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
+        <v>200</v>
+      </c>
+      <c r="P15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
       </c>
       <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1205,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,46 +1346,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-900</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
@@ -1333,66 +1401,78 @@
       <c r="S20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1412,11 +1492,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1436,117 +1516,135 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1696,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>400</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
       </c>
       <c r="L26" s="3">
+        <v>400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>600</v>
+      </c>
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>400</v>
       </c>
       <c r="K27" s="3">
         <v>600</v>
       </c>
       <c r="L27" s="3">
+        <v>400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>600</v>
+      </c>
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1873,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,20 +1905,20 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>600</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1932,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1991,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,46 +2050,52 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>900</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
@@ -1969,61 +2109,73 @@
       <c r="S32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>400</v>
       </c>
       <c r="K33" s="3">
         <v>600</v>
       </c>
       <c r="L33" s="3">
+        <v>400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>600</v>
+      </c>
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2227,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>400</v>
       </c>
       <c r="K35" s="3">
         <v>600</v>
       </c>
       <c r="L35" s="3">
+        <v>400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>600</v>
+      </c>
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2377,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,167 +2400,187 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F42" s="3">
         <v>5800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>6800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>6600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>7500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>7500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>6700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>500</v>
-      </c>
-      <c r="R42" s="3">
-        <v>500</v>
       </c>
       <c r="S42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>500</v>
+      </c>
+      <c r="U42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2405,255 +2597,285 @@
         <v>500</v>
       </c>
       <c r="H44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>600</v>
       </c>
       <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
+        <v>600</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>600</v>
       </c>
       <c r="S44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>600</v>
+      </c>
+      <c r="U44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F46" s="3">
         <v>9800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5300</v>
-      </c>
-      <c r="P47" s="3">
-        <v>8500</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>8700</v>
       </c>
       <c r="R47" s="3">
         <v>8500</v>
       </c>
       <c r="S47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="T47" s="3">
+        <v>8500</v>
+      </c>
+      <c r="U47" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F48" s="3">
         <v>19800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>20000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>18500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>18900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>19100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>18900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>18900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>19100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>19300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2927,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2986,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3045,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2823,10 +3063,10 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
@@ -2864,8 +3104,14 @@
       <c r="S52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>800</v>
+      </c>
+      <c r="U52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3163,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F54" s="3">
         <v>29900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>30400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>29800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>28400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>28600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>30900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>29800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>29200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>29600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>32200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>31500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>30900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3249,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3272,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,134 +3374,152 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3277,28 +3563,34 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1300</v>
       </c>
       <c r="J62" s="3">
         <v>1400</v>
@@ -3310,19 +3602,19 @@
         <v>1400</v>
       </c>
       <c r="M62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2400</v>
       </c>
       <c r="R62" s="3">
         <v>2300</v>
@@ -3330,8 +3622,14 @@
       <c r="S62" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U62" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3681,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3740,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3799,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="E66" s="3">
-        <v>7200</v>
+        <v>6100</v>
       </c>
       <c r="F66" s="3">
         <v>6500</v>
       </c>
       <c r="G66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3885,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3940,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3999,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4058,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4117,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F72" s="3">
         <v>15100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>14900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>14900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>15300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>14000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>14300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>13100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>13700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>14300</v>
       </c>
       <c r="Q72" s="3">
         <v>13700</v>
       </c>
       <c r="R72" s="3">
+        <v>14300</v>
+      </c>
+      <c r="S72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="T72" s="3">
         <v>13900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4235,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4294,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4353,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F76" s="3">
         <v>23400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>23300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>23300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>23900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>24600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>23700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>24000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>24500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>24900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>24600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>24000</v>
       </c>
       <c r="O76" s="3">
         <v>24600</v>
       </c>
       <c r="P76" s="3">
+        <v>24000</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>24600</v>
+      </c>
+      <c r="R76" s="3">
         <v>25400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>25000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>25100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4471,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>400</v>
       </c>
       <c r="K81" s="3">
         <v>600</v>
       </c>
       <c r="L81" s="3">
+        <v>400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>600</v>
+      </c>
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4621,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,13 +4638,13 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4264,22 +4662,28 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4735,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4794,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4853,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4912,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4971,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5057,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4626,40 +5068,40 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -4670,8 +5112,14 @@
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5171,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5230,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>400</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,16 +5316,18 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-900</v>
@@ -4903,8 +5371,14 @@
       <c r="S96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5430,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5489,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,16 +5548,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-900</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="3">
         <v>-900</v>
@@ -5104,19 +5596,25 @@
         <v>-900</v>
       </c>
       <c r="P100" s="3">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
       <c r="Q100" s="3">
         <v>-900</v>
       </c>
       <c r="R100" s="3">
-        <v>-400</v>
+        <v>-1400</v>
       </c>
       <c r="S100" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5666,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWL.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWL.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>BWL.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,170 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2000</v>
       </c>
       <c r="G9" s="3">
         <v>2000</v>
@@ -831,37 +837,37 @@
         <v>2000</v>
       </c>
       <c r="I9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2000</v>
       </c>
       <c r="L9" s="3">
         <v>2000</v>
       </c>
       <c r="M9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1900</v>
       </c>
       <c r="Q9" s="3">
         <v>1900</v>
       </c>
       <c r="R9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S9" s="3">
         <v>2200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2000</v>
       </c>
       <c r="T9" s="3">
         <v>2000</v>
@@ -869,67 +875,73 @@
       <c r="U9" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1149,10 +1171,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1173,10 +1195,10 @@
         <v>200</v>
       </c>
       <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>300</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1185,10 +1207,13 @@
         <v>300</v>
       </c>
       <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5300</v>
       </c>
       <c r="H17" s="3">
         <v>5300</v>
       </c>
       <c r="I17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,40 +1390,40 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1407,75 +1440,81 @@
       <c r="U20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>800</v>
       </c>
       <c r="M21" s="3">
         <v>800</v>
       </c>
       <c r="N21" s="3">
+        <v>800</v>
+      </c>
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1498,8 +1537,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1522,129 +1561,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>600</v>
       </c>
       <c r="M23" s="3">
         <v>600</v>
       </c>
       <c r="N23" s="3">
+        <v>600</v>
+      </c>
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1911,17 +1971,17 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>600</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2065,40 +2134,40 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2115,67 +2184,73 @@
       <c r="U32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,117 +2487,121 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1000</v>
       </c>
       <c r="M41" s="3">
         <v>1000</v>
       </c>
       <c r="N41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1400</v>
       </c>
       <c r="S41" s="3">
         <v>1400</v>
       </c>
       <c r="T41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E42" s="3">
         <v>5500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>7500</v>
       </c>
       <c r="J42" s="3">
         <v>7500</v>
       </c>
       <c r="K42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L42" s="3">
         <v>6700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2100</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2000</v>
       </c>
       <c r="P42" s="3">
         <v>2000</v>
       </c>
       <c r="Q42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R42" s="3">
         <v>3000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1500</v>
-      </c>
-      <c r="S42" s="3">
-        <v>500</v>
       </c>
       <c r="T42" s="3">
         <v>500</v>
@@ -2520,8 +2609,11 @@
       <c r="U42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2532,13 +2624,13 @@
         <v>800</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
@@ -2547,45 +2639,48 @@
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
@@ -2603,7 +2698,7 @@
         <v>500</v>
       </c>
       <c r="J44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
@@ -2612,25 +2707,25 @@
         <v>600</v>
       </c>
       <c r="M44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
       </c>
       <c r="O44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>600</v>
       </c>
       <c r="Q44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R44" s="3">
         <v>500</v>
       </c>
       <c r="S44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T44" s="3">
         <v>600</v>
@@ -2638,8 +2733,11 @@
       <c r="U44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2647,117 +2745,123 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>400</v>
       </c>
       <c r="T45" s="3">
         <v>400</v>
       </c>
       <c r="U45" s="3">
+        <v>400</v>
+      </c>
+      <c r="V45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2782,100 +2886,106 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>4800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>5500</v>
       </c>
       <c r="P47" s="3">
         <v>5500</v>
       </c>
       <c r="Q47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R47" s="3">
         <v>5300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>20000</v>
       </c>
       <c r="H48" s="3">
         <v>20000</v>
       </c>
       <c r="I48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J48" s="3">
         <v>18100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>18500</v>
       </c>
       <c r="L48" s="3">
         <v>18500</v>
       </c>
       <c r="M48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="N48" s="3">
         <v>18700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>18900</v>
       </c>
       <c r="R48" s="3">
         <v>18900</v>
       </c>
       <c r="S48" s="3">
+        <v>18900</v>
+      </c>
+      <c r="T48" s="3">
         <v>19100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2933,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3069,7 +3188,7 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
@@ -3110,8 +3229,11 @@
       <c r="U52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E54" s="3">
         <v>27600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3283,58 +3413,61 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3380,138 +3513,147 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="S58" s="3">
-        <v>500</v>
       </c>
       <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>500</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2600</v>
       </c>
       <c r="U59" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E60" s="3">
         <v>1600</v>
       </c>
       <c r="F60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3000</v>
       </c>
       <c r="Q60" s="3">
         <v>3000</v>
       </c>
       <c r="R60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S60" s="3">
         <v>4500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3522,7 +3664,7 @@
         <v>1500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3569,67 +3711,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3000</v>
       </c>
       <c r="F62" s="3">
         <v>3000</v>
       </c>
       <c r="G62" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H62" s="3">
         <v>3300</v>
       </c>
       <c r="I62" s="3">
-        <v>1400</v>
+        <v>3300</v>
       </c>
       <c r="J62" s="3">
         <v>1400</v>
       </c>
       <c r="K62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4400</v>
       </c>
       <c r="M66" s="3">
         <v>4400</v>
       </c>
       <c r="N66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O66" s="3">
         <v>6000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E72" s="3">
         <v>13400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>14900</v>
       </c>
       <c r="H72" s="3">
         <v>14900</v>
       </c>
       <c r="I72" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J72" s="3">
         <v>15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E76" s="3">
         <v>21800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>23300</v>
       </c>
       <c r="H76" s="3">
         <v>23300</v>
       </c>
       <c r="I76" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J76" s="3">
         <v>23900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4644,10 +4842,10 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4668,10 +4866,10 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -4680,10 +4878,13 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,13 +5278,14 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5074,37 +5294,37 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -5118,8 +5338,11 @@
       <c r="U91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5330,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-900</v>
@@ -5377,8 +5610,11 @@
       <c r="U96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,19 +5796,22 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-900</v>
       </c>
       <c r="G100" s="3">
         <v>-900</v>
@@ -5602,19 +5847,22 @@
         <v>-900</v>
       </c>
       <c r="R100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWL.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWL.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BWL.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,166 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E7" s="2">
         <v>44192</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43464</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42736</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,13 +832,13 @@
         <v>1200</v>
       </c>
       <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2000</v>
       </c>
       <c r="H9" s="3">
         <v>2000</v>
@@ -840,37 +847,37 @@
         <v>2000</v>
       </c>
       <c r="J9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2000</v>
       </c>
       <c r="M9" s="3">
         <v>2000</v>
       </c>
       <c r="N9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1900</v>
       </c>
       <c r="R9" s="3">
         <v>1900</v>
       </c>
       <c r="S9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T9" s="3">
         <v>2200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2000</v>
       </c>
       <c r="U9" s="3">
         <v>2000</v>
@@ -878,70 +885,76 @@
       <c r="V9" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1174,10 +1197,10 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1198,10 +1221,10 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>300</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1210,10 +1233,13 @@
         <v>300</v>
       </c>
       <c r="V15" s="3">
+        <v>300</v>
+      </c>
+      <c r="W15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5300</v>
       </c>
       <c r="I17" s="3">
         <v>5300</v>
       </c>
       <c r="J17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,52 +1414,53 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1443,81 +1477,87 @@
       <c r="V20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>800</v>
       </c>
       <c r="N21" s="3">
         <v>800</v>
       </c>
       <c r="O21" s="3">
+        <v>800</v>
+      </c>
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1540,8 +1580,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1564,135 +1604,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>600</v>
       </c>
       <c r="N23" s="3">
         <v>600</v>
       </c>
       <c r="O23" s="3">
+        <v>600</v>
+      </c>
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,31 +1997,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1974,17 +2035,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,52 +2192,55 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2187,70 +2257,76 @@
       <c r="V32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E38" s="2">
         <v>44192</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43464</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42736</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,123 +2574,127 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1000</v>
       </c>
       <c r="N41" s="3">
         <v>1000</v>
       </c>
       <c r="O41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1400</v>
       </c>
       <c r="T41" s="3">
         <v>1400</v>
       </c>
       <c r="U41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E42" s="3">
         <v>5700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>7500</v>
       </c>
       <c r="K42" s="3">
         <v>7500</v>
       </c>
       <c r="L42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M42" s="3">
         <v>6700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2100</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2000</v>
       </c>
       <c r="Q42" s="3">
         <v>2000</v>
       </c>
       <c r="R42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S42" s="3">
         <v>3000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1500</v>
-      </c>
-      <c r="T42" s="3">
-        <v>500</v>
       </c>
       <c r="U42" s="3">
         <v>500</v>
@@ -2612,13 +2702,16 @@
       <c r="V42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
@@ -2627,13 +2720,13 @@
         <v>800</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -2642,40 +2735,43 @@
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2683,7 +2779,7 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
@@ -2701,7 +2797,7 @@
         <v>500</v>
       </c>
       <c r="K44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>600</v>
@@ -2710,25 +2806,25 @@
         <v>600</v>
       </c>
       <c r="N44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O44" s="3">
         <v>500</v>
       </c>
       <c r="P44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>600</v>
       </c>
       <c r="R44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S44" s="3">
         <v>500</v>
       </c>
       <c r="T44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>600</v>
@@ -2736,132 +2832,141 @@
       <c r="V44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
       </c>
       <c r="Q45" s="3">
+        <v>500</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>400</v>
       </c>
       <c r="U45" s="3">
         <v>400</v>
       </c>
       <c r="V45" s="3">
+        <v>400</v>
+      </c>
+      <c r="W45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E46" s="3">
         <v>8000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2889,103 +2994,109 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>4800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>5500</v>
       </c>
       <c r="Q47" s="3">
         <v>5500</v>
       </c>
       <c r="R47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="S47" s="3">
         <v>5300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E48" s="3">
         <v>19000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>20000</v>
       </c>
       <c r="I48" s="3">
         <v>20000</v>
       </c>
       <c r="J48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K48" s="3">
         <v>18100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>18500</v>
       </c>
       <c r="M48" s="3">
         <v>18500</v>
       </c>
       <c r="N48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="O48" s="3">
         <v>18700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>18900</v>
       </c>
       <c r="S48" s="3">
         <v>18900</v>
       </c>
       <c r="T48" s="3">
+        <v>18900</v>
+      </c>
+      <c r="U48" s="3">
         <v>19100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3191,7 +3311,7 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E54" s="3">
         <v>27300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3534,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3516,144 +3650,153 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="T58" s="3">
-        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>500</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>2600</v>
       </c>
       <c r="V59" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1600</v>
       </c>
       <c r="F60" s="3">
         <v>1600</v>
       </c>
       <c r="G60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3000</v>
       </c>
       <c r="R60" s="3">
         <v>3000</v>
       </c>
       <c r="S60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T60" s="3">
         <v>4500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3667,7 +3810,7 @@
         <v>1500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3714,70 +3857,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3000</v>
       </c>
       <c r="G62" s="3">
         <v>3000</v>
       </c>
       <c r="H62" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="3">
         <v>3300</v>
       </c>
       <c r="J62" s="3">
-        <v>1400</v>
+        <v>3300</v>
       </c>
       <c r="K62" s="3">
         <v>1400</v>
       </c>
       <c r="L62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>4400</v>
       </c>
       <c r="N66" s="3">
         <v>4400</v>
       </c>
       <c r="O66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P66" s="3">
         <v>6000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E72" s="3">
         <v>13100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>14900</v>
       </c>
       <c r="I72" s="3">
         <v>14900</v>
       </c>
       <c r="J72" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K72" s="3">
         <v>15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E76" s="3">
         <v>21500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>23300</v>
       </c>
       <c r="I76" s="3">
         <v>23300</v>
       </c>
       <c r="J76" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K76" s="3">
         <v>23900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E80" s="2">
         <v>44192</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43464</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42736</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4845,10 +5044,10 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4869,10 +5068,10 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -4881,10 +5080,13 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5288,7 +5509,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5297,37 +5518,37 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5566,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-900</v>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,22 +6042,25 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-900</v>
       </c>
       <c r="H100" s="3">
         <v>-900</v>
@@ -5850,19 +6096,22 @@
         <v>-900</v>
       </c>
       <c r="S100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3000</v>
       </c>
     </row>
